--- a/Documents/Dictionary.xlsx
+++ b/Documents/Dictionary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>متقاضی</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>اضافات - کسورات</t>
+  </si>
+  <si>
+    <t>Benefactor</t>
+  </si>
+  <si>
+    <t>نیکوکار</t>
   </si>
 </sst>
 </file>
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,6 +625,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
